--- a/docs/rotors/rotor_data.xlsx
+++ b/docs/rotors/rotor_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/docs/rotors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE71DC-9AE8-934B-8D3D-367EF7276B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2127878B-A188-0146-848D-F7D5EDE7BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{2F87124F-FADD-1C4B-8E1F-F5E2F237BAFB}"/>
   </bookViews>
@@ -2093,8 +2093,8 @@
       <cdr:x>0.83884</cdr:x>
       <cdr:y>0.81918</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 36">
@@ -2349,7 +2349,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 36">
@@ -2537,8 +2537,8 @@
       <cdr:x>0.49151</cdr:x>
       <cdr:y>0.39962</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 36">
@@ -2796,7 +2796,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 36">
@@ -2987,8 +2987,8 @@
       <cdr:x>0.62599</cdr:x>
       <cdr:y>0.20843</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="4" name="TextBox 36">
@@ -3227,7 +3227,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="4" name="TextBox 36">
@@ -3418,8 +3418,8 @@
       <cdr:x>0.48772</cdr:x>
       <cdr:y>0.56957</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="5" name="TextBox 36">
@@ -3676,7 +3676,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="5" name="TextBox 36">
@@ -4174,7 +4174,7 @@
   <dimension ref="B2:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/rotors/rotor_data.xlsx
+++ b/docs/rotors/rotor_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/docs/rotors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2127878B-A188-0146-848D-F7D5EDE7BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD7EF9-59F9-2D4C-B8C9-CD0CC7996953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{2F87124F-FADD-1C4B-8E1F-F5E2F237BAFB}"/>
   </bookViews>
@@ -4173,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E76DEE-66FE-6E46-8276-3145E42439BE}">
   <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/rotors/rotor_data.xlsx
+++ b/docs/rotors/rotor_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/docs/rotors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD7EF9-59F9-2D4C-B8C9-CD0CC7996953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79254978-F030-604A-9CDB-5A3C3C99A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{2F87124F-FADD-1C4B-8E1F-F5E2F237BAFB}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -67,12 +89,24 @@
   <si>
     <t>Weight (g)</t>
   </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Trend for thrust &gt; 200 N</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +139,12 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -198,17 +238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -217,11 +246,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,33 +281,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,7 +353,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Rotor + Hub Weight vs Thrust</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -310,9 +423,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12441044805947479"/>
-          <c:y val="2.3166545671152807E-2"/>
+          <c:y val="7.4334192538194954E-2"/>
           <c:w val="0.81244149168853896"/>
-          <c:h val="0.83398895450568666"/>
+          <c:h val="0.78282127470595508"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -322,7 +435,7 @@
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Single Piece</c:v>
+            <c:v>Single Piece Rotor</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -347,42 +460,19 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Duffy et al'!$C$3:$C$8</c:f>
+              <c:f>'Duffy et al'!$C$6:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>59.792917713330702</c:v>
+                  <c:v>213.771221376868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.653651156078993</c:v>
+                  <c:v>263.82733889318501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196.977328776554</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>213.771221376868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>263.82733889318501</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>353.364852593862</c:v>
                 </c:pt>
               </c:numCache>
@@ -390,27 +480,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Duffy et al'!$D$3:$D$8</c:f>
+              <c:f>'Duffy et al'!$E$6:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39.1940677484722</c:v>
+                  <c:v>0.49150215204003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.106316037147202</c:v>
+                  <c:v>0.40122670431669799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.424746950150407</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>491.50215204003001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>401.22670431669798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>976.85591030689</c:v>
+                  <c:v>0.97685591030689001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,22 +529,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="dashDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Duffy et al'!$C$9:$C$14</c:f>
@@ -493,27 +558,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Duffy et al'!$D$9:$D$14</c:f>
+              <c:f>'Duffy et al'!$E$9:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>539.76334659381598</c:v>
+                  <c:v>0.53976334659381597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>889.51349731082303</c:v>
+                  <c:v>0.88951349731082308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2694.6879144495001</c:v>
+                  <c:v>2.6946879144495002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3625.1170499885402</c:v>
+                  <c:v>3.6251170499885403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5439.92886045458</c:v>
+                  <c:v>5.4399288604545797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8163.27461947757</c:v>
+                  <c:v>8.1632746194775692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,21 +616,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd" cmpd="tri">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Duffy et al'!$C$15:$C$16</c:f>
@@ -583,15 +633,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Duffy et al'!$D$15:$D$16</c:f>
+              <c:f>'Duffy et al'!$E$15:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4371.9779819692403</c:v>
+                  <c:v>4.3719779819692404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4510.6308732772104</c:v>
+                  <c:v>4.5106308732772105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,76 +667,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
             <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
+              <a:ln w="19050" cap="rnd">
                 <a:noFill/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd" cmpd="tri">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Duffy et al'!$C$3:$C$16</c:f>
+              <c:f>'Duffy et al'!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>59.792917713330702</c:v>
+                  <c:v>213.771221376868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.653651156078993</c:v>
+                  <c:v>263.82733889318501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196.977328776554</c:v>
+                  <c:v>353.364852593862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213.771221376868</c:v>
+                  <c:v>237.484088872928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263.82733889318501</c:v>
+                  <c:v>341.18892369745703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>353.364852593862</c:v>
+                  <c:v>563.98692467805097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>237.484088872928</c:v>
+                  <c:v>557.433279882389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>341.18892369745703</c:v>
+                  <c:v>641.36698286608305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>563.98692467805097</c:v>
+                  <c:v>879.35135381892496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>557.433279882389</c:v>
+                  <c:v>696.04864747459703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>641.36698286608305</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>879.35135381892496</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>696.04864747459703</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>889.68973265545503</c:v>
                 </c:pt>
               </c:numCache>
@@ -694,51 +725,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Duffy et al'!$D$3:$D$16</c:f>
+              <c:f>'Duffy et al'!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>39.1940677484722</c:v>
+                  <c:v>0.49150215204003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.106316037147202</c:v>
+                  <c:v>0.40122670431669799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.424746950150407</c:v>
+                  <c:v>0.97685591030689001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>491.50215204003001</c:v>
+                  <c:v>0.53976334659381597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>401.22670431669798</c:v>
+                  <c:v>0.88951349731082308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>976.85591030689</c:v>
+                  <c:v>2.6946879144495002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>539.76334659381598</c:v>
+                  <c:v>3.6251170499885403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>889.51349731082303</c:v>
+                  <c:v>5.4399288604545797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2694.6879144495001</c:v>
+                  <c:v>8.1632746194775692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3625.1170499885402</c:v>
+                  <c:v>4.3719779819692404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5439.92886045458</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8163.27461947757</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4371.9779819692403</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4510.6308732772104</c:v>
+                  <c:v>4.5106308732772105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,7 +768,188 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-77B7-8948-8962-580789EC45E2}"/>
+              <c16:uniqueId val="{00000009-0627-314B-B143-54F7653E94B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>All Data Regress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Duffy et al'!$C$22:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Duffy et al'!$D$22:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-2.750000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5374999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2474999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9574999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6675000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5224999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3774999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.2325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.087499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.942499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.797499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.6525</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.507499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.362499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.217500000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.072500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0627-314B-B143-54F7653E94B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -766,8 +969,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
-          <c:min val="10"/>
+          <c:max val="2000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -892,7 +1095,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="378920176"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0.01"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -900,8 +1103,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
-          <c:min val="10"/>
+          <c:max val="20"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -954,11 +1157,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="1"/>
-                  <a:t>Weight (g)</a:t>
+                  <a:t>Weight (kg)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.38324869538210016"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1124,18 +1335,14 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1392182660341893"/>
-          <c:y val="0.66334827203627167"/>
-          <c:w val="0.24366197724315475"/>
-          <c:h val="0.1601547082273847"/>
+          <c:x val="0.63386388914622638"/>
+          <c:y val="0.6796531731233435"/>
+          <c:w val="0.28277312413951144"/>
+          <c:h val="0.15991575824447507"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1763,25 +1970,75 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>348792</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E70264-0A76-4701-D412-671934EAB134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11338351" y="1269999"/>
+          <a:ext cx="7772400" cy="7632356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107456</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7184</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11607</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>186900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619449</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>100112</xdr:rowOff>
+      <xdr:rowOff>64168</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 3">
+        <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01904AF-D404-57BC-0187-AC58CF5D40DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1C008-CD48-3AB9-2B11-E382C08AEB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,99 +2046,39 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4844556" y="2001084"/>
-          <a:ext cx="5464993" cy="5452328"/>
-          <a:chOff x="9220034" y="1944916"/>
-          <a:chExt cx="5461065" cy="5539526"/>
+          <a:off x="5750569" y="1960108"/>
+          <a:ext cx="5472182" cy="5460475"/>
+          <a:chOff x="5846418" y="1996052"/>
+          <a:chExt cx="5472182" cy="5460475"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="Group 20">
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="9" name="Chart 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD08C55-58D4-714D-CB00-9E4B8426B178}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96444DC7-F028-5FDB-AED9-38E3E0AB438B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9220034" y="1944916"/>
-            <a:ext cx="5461065" cy="5539526"/>
-            <a:chOff x="6195122" y="3360853"/>
-            <a:chExt cx="5433122" cy="5436220"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="9" name="Chart 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96444DC7-F028-5FDB-AED9-38E3E0AB438B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="6195122" y="3360853"/>
-            <a:ext cx="5433122" cy="5436220"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C69A2B6-9FAB-6C94-741B-EDBAD3D9C888}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:cxnSpLocks/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1" flipV="1">
-              <a:off x="9435844" y="6231893"/>
-              <a:ext cx="26052" cy="835160"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="3175">
-              <a:tailEnd type="none"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5846418" y="1996052"/>
+          <a:ext cx="5472182" cy="5460475"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C8EB4F-CD51-9C41-A09B-907E9E5A01D2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21897A3-E92A-B845-AF67-7DD8A5BF48D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1890,9 +2087,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11901973" y="3862961"/>
-            <a:ext cx="1177718" cy="51782"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="7563320" y="3739035"/>
+            <a:ext cx="1027151" cy="586154"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1919,166 +2116,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>157112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>348792</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38541</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E70264-0A76-4701-D412-671934EAB134}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11338351" y="1269999"/>
-          <a:ext cx="7772400" cy="7632356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238722</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>64834</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133684</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94909276-470C-AD4D-8A0F-454A2EFC0C57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8250226" y="2685126"/>
-          <a:ext cx="1468518" cy="122242"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>290336</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47824</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21897A3-E92A-B845-AF67-7DD8A5BF48D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7503936" y="4521200"/>
-          <a:ext cx="776464" cy="210384"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2086,21 +2123,21 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.58229</cdr:x>
-      <cdr:y>0.68041</cdr:y>
+      <cdr:x>0.13158</cdr:x>
+      <cdr:y>0.15674</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.83884</cdr:x>
-      <cdr:y>0.81918</cdr:y>
+      <cdr:x>0.49164</cdr:x>
+      <cdr:y>0.31497</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
-            <cdr:cNvPr id="2" name="TextBox 36">
+            <cdr:cNvPr id="5" name="TextBox 36">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2880D47B-17DC-4D30-E40A-F68302638676}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4830237-9C8B-CA39-6BFF-CF312390B6E9}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2108,8 +2145,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="3206874" y="3615738"/>
-              <a:ext cx="1412893" cy="737411"/>
+              <a:off x="722929" y="872046"/>
+              <a:ext cx="1978270" cy="880329"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -2236,14 +2273,17 @@
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Single</a:t>
+                <a:rPr lang="en-US" sz="1300" b="1" i="0" baseline="0"/>
+                <a:t>General Trend</a:t>
               </a:r>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0" baseline="0"/>
-                <a:t> Piece Rotor</a:t>
+                <a:rPr lang="en-US" sz="1300" b="1" i="0" baseline="0"/>
+                <a:t>for thrust per rotor &gt; 200 N</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1200" i="0"/>
+              <a:endParaRPr lang="en-US" sz="1300" b="1" i="0"/>
             </a:p>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr algn="ctr"/>
@@ -2257,49 +2297,36 @@
                       <m:rPr>
                         <m:sty m:val="p"/>
                       </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>y</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=0.0464 </m:t>
+                      <m:t>=0. 0095</m:t>
                     </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>x</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1.6352</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>x</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> −1.9275</m:t>
+                    </m:r>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200" i="0"/>
+              <a:endParaRPr lang="en-US" sz="1300" i="0"/>
             </a:p>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr algn="ctr"/>
@@ -2308,7 +2335,7 @@
                   <m:sSup>
                     <m:sSupPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1300" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -2318,7 +2345,7 @@
                         <m:rPr>
                           <m:sty m:val="p"/>
                         </m:rPr>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                        <a:rPr lang="en-US" sz="1300" b="0" i="0">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                         <m:t>R</m:t>
@@ -2326,7 +2353,7 @@
                     </m:e>
                     <m:sup>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                        <a:rPr lang="en-US" sz="1300" b="0" i="0">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                         <m:t>2</m:t>
@@ -2334,15 +2361,15 @@
                     </m:sup>
                   </m:sSup>
                   <m:r>
-                    <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                    <a:rPr lang="en-US" sz="1300" b="0" i="0">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>=0.864</m:t>
+                    <m:t>=0.8457</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
+                <a:rPr lang="en-US" sz="1300" i="0"/>
                 <a:t> </a:t>
               </a:r>
             </a:p>
@@ -2352,10 +2379,10 @@
       <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
-            <cdr:cNvPr id="2" name="TextBox 36">
+            <cdr:cNvPr id="5" name="TextBox 36">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2880D47B-17DC-4D30-E40A-F68302638676}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4830237-9C8B-CA39-6BFF-CF312390B6E9}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -2363,8 +2390,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="3206874" y="3615738"/>
-              <a:ext cx="1412893" cy="737411"/>
+              <a:off x="722929" y="872046"/>
+              <a:ext cx="1978270" cy="880329"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -2491,1335 +2518,25 @@
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Single</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0" baseline="0"/>
-                <a:t> Piece Rotor</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200" i="0"/>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>y=0.0464 x^1.6352</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200" i="0"/>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>R^2=0.864</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </cdr:txBody>
-        </cdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.23671</cdr:x>
-      <cdr:y>0.2791</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.49151</cdr:x>
-      <cdr:y>0.39962</cdr:y>
-    </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <cdr:sp macro="" textlink="">
-          <cdr:nvSpPr>
-            <cdr:cNvPr id="3" name="TextBox 36">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A428A80-026F-6197-6719-10FD2E71A32C}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvSpPr txBox="1"/>
-          </cdr:nvSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="1303656" y="1483157"/>
-              <a:ext cx="1403261" cy="640438"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </cdr:style>
-          <cdr:txBody>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:lvl1pPr marL="0" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Hub + Two</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0" baseline="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Blades</a:t>
-              </a:r>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <m:rPr>
-                        <m:sty m:val="p"/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>y</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=0.0027 </m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>x</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2.2103</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200" i="0"/>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <m:rPr>
-                          <m:sty m:val="p"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>R</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=0.9521</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </cdr:txBody>
-        </cdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <cdr:sp macro="" textlink="">
-          <cdr:nvSpPr>
-            <cdr:cNvPr id="3" name="TextBox 36">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A428A80-026F-6197-6719-10FD2E71A32C}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvSpPr txBox="1"/>
-          </cdr:nvSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="1303656" y="1483157"/>
-              <a:ext cx="1403261" cy="640438"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </cdr:style>
-          <cdr:txBody>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:lvl1pPr marL="0" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Hub + Two</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0" baseline="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Blades</a:t>
+                <a:rPr lang="en-US" sz="1300" b="1" i="0" baseline="0"/>
+                <a:t>General Trend</a:t>
               </a:r>
             </a:p>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>y=0.0027 x^2.2103</a:t>
+                <a:rPr lang="en-US" sz="1300" b="1" i="0" baseline="0"/>
+                <a:t>for thrust per rotor &gt; 200 N</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1200" i="0"/>
+              <a:endParaRPr lang="en-US" sz="1300" b="1" i="0"/>
             </a:p>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                <a:rPr lang="en-US" sz="1300" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>R^2=0.9521</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </cdr:txBody>
-        </cdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.37251</cdr:x>
-      <cdr:y>0.0848</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.62599</cdr:x>
-      <cdr:y>0.20843</cdr:y>
-    </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <cdr:sp macro="" textlink="">
-          <cdr:nvSpPr>
-            <cdr:cNvPr id="4" name="TextBox 36">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0318FABD-3D0A-3714-4CA4-B1D2B00EDCDB}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvSpPr txBox="1"/>
-          </cdr:nvSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="2051543" y="450631"/>
-              <a:ext cx="1395991" cy="656963"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </cdr:style>
-          <cdr:txBody>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:lvl1pPr marL="0" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Hub + Three</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0" baseline="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Blades</a:t>
-              </a:r>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <m:rPr>
-                        <m:sty m:val="p"/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>y</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=5. 5298 </m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:sty m:val="p"/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>x</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200" i="0"/>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <m:rPr>
-                          <m:sty m:val="p"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>R</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=0.9888</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </cdr:txBody>
-        </cdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <cdr:sp macro="" textlink="">
-          <cdr:nvSpPr>
-            <cdr:cNvPr id="4" name="TextBox 36">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0318FABD-3D0A-3714-4CA4-B1D2B00EDCDB}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvSpPr txBox="1"/>
-          </cdr:nvSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="2051543" y="450631"/>
-              <a:ext cx="1395991" cy="656963"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </cdr:style>
-          <cdr:txBody>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:lvl1pPr marL="0" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Hub + Three</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0" baseline="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t>Blades</a:t>
-              </a:r>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>y=5. 5298 x</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200" i="0"/>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>R^2=0.9888</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </cdr:txBody>
-        </cdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.21878</cdr:x>
-      <cdr:y>0.44474</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.48772</cdr:x>
-      <cdr:y>0.56957</cdr:y>
-    </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <cdr:sp macro="" textlink="">
-          <cdr:nvSpPr>
-            <cdr:cNvPr id="5" name="TextBox 36">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4830237-9C8B-CA39-6BFF-CF312390B6E9}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvSpPr txBox="1"/>
-          </cdr:nvSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="1204878" y="2363356"/>
-              <a:ext cx="1481143" cy="663349"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </cdr:style>
-          <cdr:txBody>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:lvl1pPr marL="0" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1300" i="0" baseline="0"/>
-                <a:t>General Trend</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1300" i="0"/>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <m:rPr>
-                        <m:sty m:val="p"/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>y</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=0.0088 </m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1300" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1300" b="0" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>x</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1300" b="0" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1.</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1300" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>9915</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1300" i="0"/>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1300" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <m:rPr>
-                          <m:sty m:val="p"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1300" b="0" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>R</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1300" b="0" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1300" b="0" i="0">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=0.8572</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1300" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </cdr:txBody>
-        </cdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <cdr:sp macro="" textlink="">
-          <cdr:nvSpPr>
-            <cdr:cNvPr id="5" name="TextBox 36">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4830237-9C8B-CA39-6BFF-CF312390B6E9}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvSpPr txBox="1"/>
-          </cdr:nvSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="1204878" y="2363356"/>
-              <a:ext cx="1481143" cy="663349"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </cdr:style>
-          <cdr:txBody>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:lvl1pPr marL="0" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" indent="0">
-                <a:defRPr sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1300" i="0" baseline="0"/>
-                <a:t>General Trend</a:t>
+                <a:t>y=0. 0095x −1.9275</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1300" i="0"/>
             </a:p>
@@ -3829,17 +2546,7 @@
                 <a:rPr lang="en-US" sz="1300" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>y=0.0088 x^1.9915</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1300" i="0"/>
-            </a:p>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1300" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>R^2=0.8572</a:t>
+                <a:t>R^2=0.8457</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1300" i="0"/>
@@ -4171,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E76DEE-66FE-6E46-8276-3145E42439BE}">
-  <dimension ref="B2:K41"/>
+  <dimension ref="B2:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4182,429 +2889,686 @@
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="4" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="19">
         <v>59.792917713330702</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="20">
         <v>39.1940677484722</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="19">
+        <f>D3/1000</f>
+        <v>3.91940677484722E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="10">
+    <row r="4" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="21">
         <v>65.653651156078993</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="16">
         <v>51.106316037147202</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="21">
+        <f>D4/1000</f>
+        <v>5.1106316037147201E-2</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10">
+    <row r="5" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="21">
         <v>196.977328776554</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>95.424746950150407</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:E15" si="0">D5/1000</f>
+        <v>9.5424746950150408E-2</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
+    <row r="6" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="21">
         <v>213.771221376868</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="16">
         <v>491.50215204003001</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.49150215204003</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
+    <row r="7" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="21">
         <v>263.82733889318501</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="16">
         <v>401.22670431669798</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.40122670431669799</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
+    <row r="8" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="21">
         <v>353.364852593862</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="16">
         <v>976.85591030689</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97685591030689001</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="21">
         <v>237.484088872928</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="16">
         <v>539.76334659381598</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.53976334659381597</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="21">
         <v>341.18892369745703</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="16">
         <v>889.51349731082303</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.88951349731082308</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="21">
         <v>563.98692467805097</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="16">
         <v>2694.6879144495001</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>2.6946879144495002</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="10">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="21">
         <v>557.433279882389</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="16">
         <v>3625.1170499885402</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="21">
+        <f t="shared" si="0"/>
+        <v>3.6251170499885403</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="21">
         <v>641.36698286608305</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="16">
         <v>5439.92886045458</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>5.4399288604545797</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="10">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="21">
         <v>879.35135381892496</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="16">
         <v>8163.27461947757</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
+        <v>8.1632746194775692</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="10">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="21">
         <v>696.04864747459703</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="16">
         <v>4371.9779819692403</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>4.3719779819692404</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="15">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="22">
         <v>889.68973265545503</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="23">
         <v>4510.6308732772104</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="22">
+        <f>D16/1000</f>
+        <v>4.5106308732772105</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="16">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-1.9275</v>
+      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="16" cm="1">
+        <f t="array" ref="C22:C42">_xlfn.SEQUENCE(21,1,200,(2000-200)/20)</f>
+        <v>200</v>
+      </c>
+      <c r="D22" s="16">
+        <f>$D$20*C22+$D$21</f>
+        <v>-2.750000000000008E-2</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="16">
+        <v>290</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" ref="D23:D42" si="1">$D$20*C23+$D$21</f>
+        <v>0.8274999999999999</v>
+      </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="16">
+        <v>380</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="1"/>
+        <v>1.6824999999999999</v>
+      </c>
+      <c r="E24" s="16"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="16">
+        <v>470</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="1"/>
+        <v>2.5374999999999996</v>
+      </c>
+      <c r="E25" s="16"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="16">
+        <v>560</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="1"/>
+        <v>3.3925000000000001</v>
+      </c>
+      <c r="E26" s="16"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="16">
+        <v>650</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="1"/>
+        <v>4.2474999999999996</v>
+      </c>
+      <c r="E27" s="16"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="16">
+        <v>740</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="1"/>
+        <v>5.1025</v>
+      </c>
+      <c r="E28" s="16"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="16">
+        <v>830</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="1"/>
+        <v>5.9574999999999996</v>
+      </c>
+      <c r="E29" s="16"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="G36" s="5"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="16">
+        <v>920</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="1"/>
+        <v>6.8125</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="18">
+        <v>1010</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6675000000000004</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="18">
+        <v>1100</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="1"/>
+        <v>8.5224999999999991</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="18">
+        <v>1190</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="1"/>
+        <v>9.3774999999999995</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="18">
+        <v>1280</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="1"/>
+        <v>10.2325</v>
+      </c>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="18">
+        <v>1370</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="1"/>
+        <v>11.087499999999999</v>
+      </c>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="18">
+        <v>1460</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="1"/>
+        <v>11.942499999999999</v>
+      </c>
+      <c r="E36" s="14"/>
       <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="G37" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="18">
+        <v>1550</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="1"/>
+        <v>12.797499999999999</v>
+      </c>
+      <c r="E37" s="14"/>
       <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="18"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="12"/>
+      <c r="C38" s="18">
+        <v>1640</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="1"/>
+        <v>13.6525</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="18">
+        <v>1730</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>14.507499999999999</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="18">
+        <v>1820</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="1"/>
+        <v>15.362499999999999</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="18">
+        <v>1910</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="1"/>
+        <v>16.217500000000001</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="1"/>
+        <v>17.072500000000002</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D46" s="16"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
